--- a/Analyses/world cafe/outputs/openQuestions.xlsx
+++ b/Analyses/world cafe/outputs/openQuestions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -95,13 +95,42 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>Can survive damage, might be able to reach places/be used at places, where softness is a big advantage.</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>sensitive objects (medical) , 
+harsh environments (marine)</t>
+  </si>
+  <si>
     <t>They can be more adaptive, shape-change, and responsive.</t>
+  </si>
+  <si>
+    <t>Human machine Interaction
+Fitting through tight spaces</t>
   </si>
   <si>
     <t>large elastic deformation of the robot: in tight spaces, interaction with fragile objects</t>
@@ -139,6 +168,22 @@
     <t>Can be put in different spaces where the robots with hard counterparts are not accessible</t>
   </si>
   <si>
+    <t>Not within my field of expertise.</t>
+  </si>
+  <si>
+    <t>Medicine, care</t>
+  </si>
+  <si>
+    <t>Interaction of soft robots with humans might be safer due to usage of less stiff material.</t>
+  </si>
+  <si>
+    <t>Replacing real parts</t>
+  </si>
+  <si>
+    <t>different, additional fields of applications. 
+Long-lasting</t>
+  </si>
+  <si>
     <t>can adapt to different situations/conditions
 can handle physical damage better</t>
   </si>
@@ -150,6 +195,10 @@
 More interesting </t>
   </si>
   <si>
+    <t>Less likely to hurt people
+Fitting through tight spaces</t>
+  </si>
+  <si>
     <t>less risk for injury when interacting with the living world</t>
   </si>
   <si>
@@ -179,6 +228,13 @@
     <t>they are flexible and light</t>
   </si>
   <si>
+    <t>More flexible usage and less energy and ressource costly.</t>
+  </si>
+  <si>
+    <t>nicer feeling when touched
+more adaptive to human skin</t>
+  </si>
+  <si>
     <t>slow response, limited functionality</t>
   </si>
   <si>
@@ -198,6 +254,12 @@
     <t>hard to incorporate multiple functions and implement robustness</t>
   </si>
   <si>
+    <t>More flexible structure could give them a more naturalm shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energy-and resource saving </t>
+  </si>
+  <si>
     <t xml:space="preserve">Less dangerous for people. </t>
   </si>
   <si>
@@ -213,6 +275,9 @@
     <t>More life-like means they could be easier to be accepted or seen for everyday's tasks</t>
   </si>
   <si>
+    <t>Higher acceptance and they might seem to be easier understood.</t>
+  </si>
+  <si>
     <t>More interaction with humans:)</t>
   </si>
   <si>
@@ -220,6 +285,15 @@
   </si>
   <si>
     <t>They should not become too human-like</t>
+  </si>
+  <si>
+    <t>More light-weight material could lower energy consumption during life span.</t>
+  </si>
+  <si>
+    <t>Its soft therefore, life-like.</t>
+  </si>
+  <si>
+    <t>at the moment soft robots consist of many different elements, which needs to be manufactured in complex processes. This is also problematic for recycling.</t>
   </si>
   <si>
     <t>can handly physical damag better -&gt; longer lasting</t>
@@ -236,6 +310,12 @@
   </si>
   <si>
     <t>Soft robots have the potential to be more sustainable than rigid robots because of no/reduced need for electronics and rare earths. Currently however, the possibilities such as biodegradable plastics beeing used and using green energy to generate pneumatic/hydraulic energy are inferior to simply sticking an electrically powered pneumatic pump somewhere in the circuit, which is far less efficient than simply using the electric energy to drive motors and such in the first place.</t>
+  </si>
+  <si>
+    <t>Some questions were repeating</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>Sometimes I found it difficult to answer some questions. That could be because the questions werenot self-explainatory enough, or I'm just not used to these type of studies/questions and therefore struggled a bit</t>
@@ -357,43 +437,43 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -404,43 +484,43 @@
         <v>3.0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -451,43 +531,43 @@
         <v>4.0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -498,43 +578,43 @@
         <v>5.0</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -542,46 +622,46 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -589,46 +669,46 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -636,46 +716,46 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -683,46 +763,46 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -733,43 +813,43 @@
         <v>21.0</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -777,46 +857,46 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -824,10 +904,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -836,34 +916,34 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -871,46 +951,46 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="O13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -918,46 +998,328 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+      <c r="B15" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" t="s">
-        <v>74</v>
+      <c r="B16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Analyses/world cafe/outputs/openQuestions.xlsx
+++ b/Analyses/world cafe/outputs/openQuestions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>0</t>
@@ -147,6 +153,10 @@
   </si>
   <si>
     <t>Handling of soft goods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvesting fruits
+</t>
   </si>
   <si>
     <t>In my field: soft robotic grippers for manipulation of objects
@@ -161,6 +171,9 @@
 - rehabilitation of physical injuries, e.g. soft exoskeletons</t>
   </si>
   <si>
+    <t>Gripper</t>
+  </si>
+  <si>
     <t>Pneumatic or hydraulic actuation
 More life-like</t>
   </si>
@@ -217,10 +230,16 @@
     <t xml:space="preserve">Hnadling of soft things. </t>
   </si>
   <si>
+    <t>moving to places that the rigid robots can not do, also may cause less damage for example in case of using it in harvesting it can be safer for the plants</t>
+  </si>
+  <si>
     <t>Electronic-free soft robots don't produce sparks and their durability is only limited by the material of the robot, not the integrity of electric signals.
 Soft robots with electronics are usually more resistive against mechanical stresses and a lot of them do not need sensors to create a "closed-loop" control, thereby making control a lot easier.</t>
   </si>
   <si>
+    <t>Adaptivity</t>
+  </si>
+  <si>
     <t>They could make use of the volume changes inside the muscle/actuator
 They could adapt to real environment situations</t>
   </si>
@@ -244,7 +263,13 @@
     <t>More difficult to repair/replace parts, less loading capacity, less adaptable to harsh conditions (high temperature, high pressure)</t>
   </si>
   <si>
+    <t>I think depending on the usage we should use different sorts of robots, for example, I am not sure about the reaction of the soft body of a soft robot in different chemical exposure</t>
+  </si>
+  <si>
     <t>The main risk I see is wasting ressources on research that is not promising.</t>
+  </si>
+  <si>
+    <t>Durability</t>
   </si>
   <si>
     <t xml:space="preserve">They could break more easily or last less
@@ -269,6 +294,9 @@
     <t>Helps to achieve more complex tasks to be done</t>
   </si>
   <si>
+    <t xml:space="preserve">It may look a bit funny but it depends on the general shape of the robot </t>
+  </si>
+  <si>
     <t>Rethinking robotics on such a fundamental level will help shape the technology of the future in the long run.</t>
   </si>
   <si>
@@ -279,6 +307,9 @@
   </si>
   <si>
     <t>More interaction with humans:)</t>
+  </si>
+  <si>
+    <t>if you design it poorly it may look disgusting ( for example I do not like to see something that looks like a worm) or frightening</t>
   </si>
   <si>
     <t>Too much ressources, especially funding by the public, spent in the wrong direction. Soft robots in general are not very promising apart from niche applications. Soft robots exist as a field of research now for quite a long time and are still not established at all with almost no technologies actually reaching the market. So I think it is definitly a worthwhile research field, but it should also be recognized as the niche field that it is.</t>
@@ -440,40 +471,40 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -484,43 +515,43 @@
         <v>3.0</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -534,40 +565,40 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -578,43 +609,43 @@
         <v>5.0</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -628,40 +659,40 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -672,43 +703,43 @@
         <v>8.0</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -722,40 +753,40 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -769,40 +800,40 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -816,40 +847,40 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -863,40 +894,40 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -907,43 +938,43 @@
         <v>24.0</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -957,40 +988,40 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1001,43 +1032,43 @@
         <v>26.0</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -1051,40 +1082,40 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1092,46 +1123,46 @@
         <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -1139,46 +1170,46 @@
         <v>29</v>
       </c>
       <c r="B17" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="M17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="O17" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1186,46 +1217,46 @@
         <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -1239,40 +1270,40 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -1286,40 +1317,134 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" t="s">
-        <v>35</v>
+      <c r="B21" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
